--- a/Test case Awesomeqa.xlsx
+++ b/Test case Awesomeqa.xlsx
@@ -5,7 +5,7 @@
   <fileSharing readOnlyRecommended="0" userName="Ashu"/>
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="10" xWindow="240" yWindow="60" windowWidth="0" windowHeight="0" tabRatio="655"/>
+    <workbookView activeTab="5" xWindow="240" yWindow="60" windowWidth="0" windowHeight="0" tabRatio="655"/>
   </bookViews>
   <sheets>
     <sheet name="Homepage Loading" sheetId="1" r:id="rId4"/>
@@ -23,10 +23,10 @@
   <calcPr/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1721277261" val="1215" rev="124" revOS="4" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1721277261" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1721277261" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1721277261"/>
+      <pm:revision xmlns:pm="smNativeData" day="1722487745" val="1216" rev="124" revOS="4" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1722487745" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1722487745" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1722487745"/>
     </ext>
   </extLst>
 </workbook>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="335">
   <si>
     <t>Scenario TID</t>
   </si>
@@ -728,6 +728,11 @@
 should be displayed correctly</t>
   </si>
   <si>
+    <t>The page is responsive and 
+all elements displayed 
+correctly.</t>
+  </si>
+  <si>
     <t>LP_03_02</t>
   </si>
   <si>
@@ -801,6 +806,9 @@
 password reset email</t>
   </si>
   <si>
+    <t>No email is being received.</t>
+  </si>
+  <si>
     <t>LP_04_02</t>
   </si>
   <si>
@@ -821,6 +829,11 @@
 be displayed.</t>
   </si>
   <si>
+    <t>Error message "Email
+address not found" is
+displayed.</t>
+  </si>
+  <si>
     <t>LP_05</t>
   </si>
   <si>
@@ -847,6 +860,10 @@
 page.</t>
   </si>
   <si>
+    <t>User is redirected to the "Register Account"
+page.</t>
+  </si>
+  <si>
     <t>CN_01</t>
   </si>
   <si>
@@ -867,6 +884,10 @@
 2. Click on Desktops category.</t>
   </si>
   <si>
+    <t>Desktops category page should loads and 
+displays relevant products</t>
+  </si>
+  <si>
     <t>Desktops category page loads and 
 displays relevant products</t>
   </si>
@@ -882,6 +903,10 @@
 2. Click on Laptops category.</t>
   </si>
   <si>
+    <t>Laptops category page should loads and 
+displays relevant products</t>
+  </si>
+  <si>
     <t>Laptops category page loads and 
 displays relevant products</t>
   </si>
@@ -897,6 +922,10 @@
 2. Click on Components category.</t>
   </si>
   <si>
+    <t>Components category page should loads and 
+displays relevant products</t>
+  </si>
+  <si>
     <t>Components category page loads and 
 displays relevant products</t>
   </si>
@@ -912,6 +941,10 @@
 2. Click on Tablets category.</t>
   </si>
   <si>
+    <t>Tablets category page should loads and 
+displays relevant products</t>
+  </si>
+  <si>
     <t>Tablets category page loads and 
 displays relevant products</t>
   </si>
@@ -927,6 +960,10 @@
 2. Click on Software category.</t>
   </si>
   <si>
+    <t>Software category page should loads and 
+displays relevant products</t>
+  </si>
+  <si>
     <t>Software category page loads and 
 displays relevant products</t>
   </si>
@@ -942,6 +979,10 @@
 2. Click on Phones category.</t>
   </si>
   <si>
+    <t>Phones category page should loads and 
+displays relevant products</t>
+  </si>
+  <si>
     <t>Phones category page loads and 
 displays relevant products</t>
   </si>
@@ -957,6 +998,10 @@
 2. Click on Cameras category.</t>
   </si>
   <si>
+    <t>Cameras category page should loads and 
+displays relevant products</t>
+  </si>
+  <si>
     <t>Cameras category page loads and 
 displays relevant products</t>
   </si>
@@ -972,6 +1017,10 @@
 2. Click on MP3 Players category.</t>
   </si>
   <si>
+    <t>MP3 Players category page should loads and 
+displays relevant products</t>
+  </si>
+  <si>
     <t>MP3 Players category page loads and 
 displays relevant products</t>
   </si>
@@ -995,6 +1044,9 @@
 2. Click search button</t>
   </si>
   <si>
+    <t>Relevant products should displayed</t>
+  </si>
+  <si>
     <t>Relevant products are displayed</t>
   </si>
   <si>
@@ -1022,6 +1074,10 @@
   <si>
     <t>1. Enter "NonExistentProduct" in search bar
 2. Click search button</t>
+  </si>
+  <si>
+    <t>No products found message should 
+displayed</t>
   </si>
   <si>
     <t>No products found message is displayed</t>
@@ -1296,7 +1352,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1721277261" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1722487745" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -1310,7 +1366,7 @@
       <sz val="14"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1721277261" fgClr="FFFFFF" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1722487745" fgClr="FFFFFF" ulstyle="none" kern="1">
             <pm:latin face="Lato" sz="280" lang="default"/>
             <pm:cs face="Times New Roman" sz="280" lang="default"/>
             <pm:ea face="SimSun" sz="280" lang="default"/>
@@ -1325,7 +1381,7 @@
       <sz val="14"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1721277261" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1722487745" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="280" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -1340,7 +1396,7 @@
       <sz val="14"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1721277261" fgClr="FFFFFF" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1722487745" fgClr="FFFFFF" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="280" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -1356,7 +1412,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1721277261" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1722487745" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="280" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -1378,7 +1434,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1721277261" type="1" fgLvl="100" fgClr="00FF6D01" bgLvl="100" bgClr="00FF6D01"/>
+            <pm:shade xmlns:pm="smNativeData" id="1722487745" type="1" fgLvl="100" fgClr="00FF6D01" bgLvl="100" bgClr="00FF6D01"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1389,7 +1445,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1721277261" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1722487745" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1400,7 +1456,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1721277261" type="1" fgLvl="100" fgClr="00FF6D01" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1722487745" type="1" fgLvl="100" fgClr="00FF6D01" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1411,7 +1467,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1721277261" type="1" fgLvl="100" fgClr="0000FF00" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1722487745" type="1" fgLvl="100" fgClr="0000FF00" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1422,7 +1478,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1721277261" type="1" fgLvl="76" fgClr="0000FF00" bgLvl="24" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1722487745" type="1" fgLvl="76" fgClr="0000FF00" bgLvl="24" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1433,7 +1489,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1721277261" type="1" fgLvl="76" fgClr="00FF0000" bgLvl="24" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1722487745" type="1" fgLvl="76" fgClr="00FF0000" bgLvl="24" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1455,7 +1511,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1721277261"/>
+          <pm:border xmlns:pm="smNativeData" id="1722487745"/>
         </ext>
       </extLst>
     </border>
@@ -1474,7 +1530,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1721277261"/>
+          <pm:border xmlns:pm="smNativeData" id="1722487745"/>
         </ext>
       </extLst>
     </border>
@@ -1493,7 +1549,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1721277261"/>
+          <pm:border xmlns:pm="smNativeData" id="1722487745"/>
         </ext>
       </extLst>
     </border>
@@ -1512,7 +1568,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1721277261"/>
+          <pm:border xmlns:pm="smNativeData" id="1722487745"/>
         </ext>
       </extLst>
     </border>
@@ -1531,7 +1587,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1721277261"/>
+          <pm:border xmlns:pm="smNativeData" id="1722487745"/>
         </ext>
       </extLst>
     </border>
@@ -1550,7 +1606,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1721277261"/>
+          <pm:border xmlns:pm="smNativeData" id="1722487745"/>
         </ext>
       </extLst>
     </border>
@@ -1569,7 +1625,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1721277261"/>
+          <pm:border xmlns:pm="smNativeData" id="1722487745"/>
         </ext>
       </extLst>
     </border>
@@ -1577,7 +1633,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1609,47 +1665,11 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1658,10 +1678,10 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1721277261" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1722487745" count="1">
         <pm:charStyle name="Normal" fontId="0"/>
       </pm:charStyles>
-      <pm:colors xmlns:pm="smNativeData" id="1721277261" count="4">
+      <pm:colors xmlns:pm="smNativeData" id="1722487745" count="4">
         <pm:color name="Color 24" rgb="FF6D01"/>
         <pm:color name="Color 25" rgb="3DFF3D"/>
         <pm:color name="Color 26" rgb="FF3D3D"/>
@@ -2036,7 +2056,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1721277261" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1722487745" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -2045,16 +2065,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1721277261" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1721277261" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1721277261" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1721277261" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1722487745" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1722487745" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1722487745" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1722487745" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1721277261" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1722487745" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -2073,14 +2093,14 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="9" defaultColWidth="10.000000" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="25.540541" customWidth="1" style="20"/>
-    <col min="2" max="2" width="27.477477" customWidth="1" style="20"/>
-    <col min="3" max="3" width="25.540541" customWidth="1" style="20"/>
-    <col min="4" max="4" width="29.441441" customWidth="1" style="20"/>
-    <col min="5" max="6" width="25.540541" customWidth="1" style="20"/>
-    <col min="7" max="7" width="34.774775" customWidth="1" style="20"/>
-    <col min="8" max="8" width="56.234234" customWidth="1" style="20"/>
-    <col min="9" max="16384" width="25.540541" customWidth="1" style="20"/>
+    <col min="1" max="1" width="25.540541" customWidth="1" style="3"/>
+    <col min="2" max="2" width="27.477477" customWidth="1" style="3"/>
+    <col min="3" max="3" width="25.540541" customWidth="1" style="3"/>
+    <col min="4" max="4" width="29.441441" customWidth="1" style="3"/>
+    <col min="5" max="6" width="25.540541" customWidth="1" style="3"/>
+    <col min="7" max="7" width="34.774775" customWidth="1" style="3"/>
+    <col min="8" max="8" width="56.234234" customWidth="1" style="3"/>
+    <col min="9" max="16384" width="25.540541" customWidth="1" style="3"/>
   </cols>
   <sheetData>
     <row r="5" spans="1:16" s="3" customFormat="1" ht="85.05" customHeight="1">
@@ -2128,100 +2148,100 @@
       <c r="P5" s="2"/>
     </row>
     <row r="6" spans="1:13" ht="85.05" customHeight="1">
-      <c r="A6" s="20" t="s">
-        <v>271</v>
-      </c>
-      <c r="B6" s="20" t="s">
-        <v>272</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>273</v>
-      </c>
-      <c r="D6" s="20" t="s">
-        <v>274</v>
-      </c>
-      <c r="E6" s="20" t="s">
-        <v>275</v>
-      </c>
-      <c r="F6" s="20" t="s">
-        <v>276</v>
-      </c>
-      <c r="G6" s="21" t="s">
-        <v>277</v>
-      </c>
-      <c r="H6" s="20" t="s">
-        <v>278</v>
-      </c>
-      <c r="M6" s="20" t="s">
+      <c r="A6" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="M6" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="7" spans="3:13" ht="85.05" customHeight="1">
-      <c r="C7" s="20" t="s">
-        <v>279</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>280</v>
-      </c>
-      <c r="E7" s="20" t="s">
-        <v>275</v>
-      </c>
-      <c r="F7" s="20" t="s">
-        <v>281</v>
-      </c>
-      <c r="G7" s="21" t="s">
-        <v>282</v>
-      </c>
-      <c r="H7" s="20" t="s">
-        <v>283</v>
-      </c>
-      <c r="M7" s="20" t="s">
+      <c r="C7" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="M7" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="8" spans="3:13" ht="85.05" customHeight="1">
-      <c r="C8" s="20" t="s">
-        <v>284</v>
-      </c>
-      <c r="D8" s="20" t="s">
-        <v>285</v>
-      </c>
-      <c r="E8" s="20" t="s">
-        <v>275</v>
-      </c>
-      <c r="F8" s="20" t="s">
-        <v>286</v>
-      </c>
-      <c r="G8" s="21" t="s">
-        <v>287</v>
-      </c>
-      <c r="H8" s="20" t="s">
-        <v>288</v>
-      </c>
-      <c r="M8" s="20" t="s">
+      <c r="C8" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="M8" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="9" spans="3:13" ht="85.05" customHeight="1">
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="D9" s="20" t="s">
-        <v>290</v>
-      </c>
-      <c r="E9" s="20" t="s">
-        <v>275</v>
-      </c>
-      <c r="F9" s="20" t="s">
-        <v>291</v>
-      </c>
-      <c r="G9" s="21" t="s">
-        <v>292</v>
-      </c>
-      <c r="H9" s="20" t="s">
-        <v>293</v>
-      </c>
-      <c r="M9" s="20" t="s">
+      <c r="F9" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="M9" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2229,7 +2249,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1721277261" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1722487745" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -2238,16 +2258,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1721277261" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1721277261" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1721277261" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1721277261" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1722487745" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1722487745" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1722487745" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1722487745" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1721277261" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1722487745" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -2260,19 +2280,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <dimension ref="A5:P10"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="normal" topLeftCell="H4" zoomScale="60" workbookViewId="0">
+    <sheetView view="normal" topLeftCell="H4" zoomScale="60" workbookViewId="0">
       <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="9" defaultColWidth="10.000000" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="3" width="25.540541" customWidth="1" style="22"/>
-    <col min="4" max="4" width="35.405405" customWidth="1" style="22"/>
-    <col min="5" max="5" width="21.414414" customWidth="1" style="22"/>
-    <col min="6" max="6" width="29.756757" customWidth="1" style="22"/>
-    <col min="7" max="7" width="37.036036" customWidth="1" style="22"/>
-    <col min="8" max="8" width="57.909910" customWidth="1" style="22"/>
-    <col min="9" max="16384" width="25.540541" customWidth="1" style="22"/>
+    <col min="1" max="3" width="25.540541" customWidth="1" style="3"/>
+    <col min="4" max="4" width="35.405405" customWidth="1" style="3"/>
+    <col min="5" max="5" width="21.414414" customWidth="1" style="3"/>
+    <col min="6" max="6" width="29.756757" customWidth="1" style="3"/>
+    <col min="7" max="7" width="37.036036" customWidth="1" style="3"/>
+    <col min="8" max="8" width="57.909910" customWidth="1" style="3"/>
+    <col min="9" max="16384" width="25.540541" customWidth="1" style="3"/>
   </cols>
   <sheetData>
     <row r="5" spans="1:16" s="3" customFormat="1" ht="99.20" customHeight="1">
@@ -2320,123 +2340,123 @@
       <c r="P5" s="2"/>
     </row>
     <row r="6" spans="1:13" ht="99.20" customHeight="1">
-      <c r="A6" s="22" t="s">
-        <v>294</v>
-      </c>
-      <c r="B6" s="22" t="s">
-        <v>295</v>
-      </c>
-      <c r="C6" s="22" t="s">
-        <v>296</v>
-      </c>
-      <c r="D6" s="22" t="s">
-        <v>297</v>
-      </c>
-      <c r="E6" s="22" t="s">
+      <c r="A6" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="22" t="s">
-        <v>298</v>
-      </c>
-      <c r="G6" s="23" t="s">
-        <v>299</v>
-      </c>
-      <c r="H6" s="22" t="s">
-        <v>300</v>
-      </c>
-      <c r="M6" s="22" t="s">
+      <c r="F6" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="M6" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="7" spans="3:13" ht="99.20" customHeight="1">
-      <c r="C7" s="22" t="s">
-        <v>301</v>
-      </c>
-      <c r="D7" s="22" t="s">
-        <v>302</v>
-      </c>
-      <c r="E7" s="22" t="s">
+      <c r="C7" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="22" t="s">
-        <v>303</v>
-      </c>
-      <c r="G7" s="23" t="s">
-        <v>304</v>
-      </c>
-      <c r="H7" s="22" t="s">
-        <v>305</v>
-      </c>
-      <c r="M7" s="22" t="s">
+      <c r="F7" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="M7" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="8" spans="3:13" ht="99.20" customHeight="1">
-      <c r="C8" s="22" t="s">
-        <v>306</v>
-      </c>
-      <c r="D8" s="22" t="s">
-        <v>307</v>
-      </c>
-      <c r="E8" s="22" t="s">
-        <v>275</v>
-      </c>
-      <c r="F8" s="22" t="s">
-        <v>308</v>
-      </c>
-      <c r="G8" s="23" t="s">
-        <v>309</v>
-      </c>
-      <c r="H8" s="22" t="s">
-        <v>310</v>
-      </c>
-      <c r="M8" s="22" t="s">
+      <c r="C8" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="M8" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="9" spans="3:13" ht="99.20" customHeight="1">
-      <c r="C9" s="22" t="s">
-        <v>311</v>
-      </c>
-      <c r="D9" s="22" t="s">
-        <v>312</v>
-      </c>
-      <c r="E9" s="22" t="s">
+      <c r="C9" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="22" t="s">
-        <v>313</v>
-      </c>
-      <c r="G9" s="24" t="s">
-        <v>314</v>
-      </c>
-      <c r="H9" s="22" t="s">
-        <v>315</v>
-      </c>
-      <c r="M9" s="22" t="s">
+      <c r="F9" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>328</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="M9" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="10" spans="3:13" ht="99.20" customHeight="1">
-      <c r="C10" s="22" t="s">
-        <v>316</v>
-      </c>
-      <c r="D10" s="22" t="s">
-        <v>317</v>
-      </c>
-      <c r="E10" s="22" t="s">
+      <c r="C10" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="22" t="s">
-        <v>318</v>
-      </c>
-      <c r="G10" s="24" t="s">
-        <v>319</v>
-      </c>
-      <c r="H10" s="22" t="s">
-        <v>320</v>
-      </c>
-      <c r="M10" s="22" t="s">
+      <c r="F10" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="M10" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2444,7 +2464,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1721277261" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1722487745" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -2453,16 +2473,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1721277261" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1721277261" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1721277261" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1721277261" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1722487745" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1722487745" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1722487745" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1722487745" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1721277261" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1722487745" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -2727,7 +2747,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1721277261" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1722487745" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -2736,17 +2756,17 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1721277261" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1721277261" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1721277261" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1721277261" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1722487745" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1722487745" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1722487745" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1722487745" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1721277261" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1722487745" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -3100,7 +3120,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1721277261" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1722487745" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -3109,16 +3129,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1721277261" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1721277261" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1721277261" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1721277261" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1722487745" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1722487745" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1722487745" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1722487745" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1721277261" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1722487745" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -3131,8 +3151,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <dimension ref="A5:P34"/>
   <sheetViews>
-    <sheetView view="normal" topLeftCell="C7" zoomScale="60" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView view="normal" topLeftCell="C4" zoomScale="40" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16:J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="9" defaultColWidth="10.000000" defaultRowHeight="18"/>
@@ -3418,80 +3438,104 @@
       <c r="H12" s="4" t="s">
         <v>164</v>
       </c>
+      <c r="I12" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>21</v>
+      </c>
       <c r="M12" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="13" spans="3:13" ht="85.05" customHeight="1">
       <c r="C13" s="3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>121</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>164</v>
       </c>
+      <c r="I13" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>21</v>
+      </c>
       <c r="M13" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="14" spans="3:13" ht="85.05" customHeight="1">
       <c r="C14" s="3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>121</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H14" s="4" t="s">
         <v>164</v>
       </c>
+      <c r="I14" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>21</v>
+      </c>
       <c r="M14" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="68.05" customHeight="1">
       <c r="A15" s="3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>120</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>179</v>
+        <v>180</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="J15" s="10" t="s">
+        <v>85</v>
       </c>
       <c r="M15" s="3" t="s">
         <v>22</v>
@@ -3499,22 +3543,28 @@
     </row>
     <row r="16" spans="3:13" ht="68.05" customHeight="1">
       <c r="C16" s="3" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>120</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>184</v>
+        <v>186</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="M16" s="3" t="s">
         <v>31</v>
@@ -3522,28 +3572,34 @@
     </row>
     <row r="17" spans="1:13" ht="68.05" customHeight="1">
       <c r="A17" s="3" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>120</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>191</v>
+        <v>194</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="M17" s="3" t="s">
         <v>31</v>
@@ -3570,7 +3626,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1721277261" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1722487745" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -3579,16 +3635,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1721277261" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1721277261" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1721277261" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1721277261" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1722487745" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1722487745" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1722487745" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1722487745" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1721277261" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1722487745" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -3601,15 +3657,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <dimension ref="A1:P13"/>
   <sheetViews>
-    <sheetView view="normal" topLeftCell="A4" zoomScale="60" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView view="normal" topLeftCell="B4" zoomScale="60" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="9" defaultColWidth="10.000000" defaultRowHeight="68.05" customHeight="1"/>
   <cols>
     <col min="1" max="6" width="26.558559" customWidth="1" style="3"/>
-    <col min="7" max="8" width="52.234234" customWidth="1" style="3"/>
-    <col min="9" max="16384" width="26.558559" customWidth="1" style="3"/>
+    <col min="7" max="7" width="52.234234" customWidth="1" style="3"/>
+    <col min="8" max="8" width="45.324324" customWidth="1" style="3"/>
+    <col min="9" max="9" width="42.927928" customWidth="1" style="3"/>
+    <col min="10" max="16384" width="26.558559" customWidth="1" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="22.70" customHeight="1"/>
@@ -3662,28 +3720,34 @@
     </row>
     <row r="6" spans="1:13" ht="68.05" customHeight="1">
       <c r="A6" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>189</v>
-      </c>
       <c r="G6" s="4" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>198</v>
+        <v>202</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>21</v>
       </c>
       <c r="M6" s="3" t="s">
         <v>22</v>
@@ -3691,22 +3755,28 @@
     </row>
     <row r="7" spans="3:13" ht="68.05" customHeight="1">
       <c r="C7" s="3" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="D7" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>196</v>
-      </c>
       <c r="F7" s="3" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>202</v>
+        <v>207</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>21</v>
       </c>
       <c r="M7" s="3" t="s">
         <v>22</v>
@@ -3714,22 +3784,28 @@
     </row>
     <row r="8" spans="3:13" ht="68.05" customHeight="1">
       <c r="C8" s="3" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>206</v>
+        <v>212</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="J8" s="11" t="s">
+        <v>21</v>
       </c>
       <c r="M8" s="3" t="s">
         <v>22</v>
@@ -3737,22 +3813,28 @@
     </row>
     <row r="9" spans="3:13" ht="68.05" customHeight="1">
       <c r="C9" s="3" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>210</v>
+        <v>217</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>21</v>
       </c>
       <c r="M9" s="3" t="s">
         <v>22</v>
@@ -3760,22 +3842,28 @@
     </row>
     <row r="10" spans="3:13" ht="68.05" customHeight="1">
       <c r="C10" s="3" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>214</v>
+        <v>222</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>21</v>
       </c>
       <c r="M10" s="3" t="s">
         <v>22</v>
@@ -3783,22 +3871,28 @@
     </row>
     <row r="11" spans="3:13" ht="68.05" customHeight="1">
       <c r="C11" s="3" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>218</v>
+        <v>227</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="J11" s="11" t="s">
+        <v>21</v>
       </c>
       <c r="M11" s="3" t="s">
         <v>22</v>
@@ -3806,22 +3900,28 @@
     </row>
     <row r="12" spans="3:13" ht="68.05" customHeight="1">
       <c r="C12" s="3" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>222</v>
+        <v>232</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="J12" s="11" t="s">
+        <v>21</v>
       </c>
       <c r="M12" s="3" t="s">
         <v>22</v>
@@ -3829,22 +3929,28 @@
     </row>
     <row r="13" spans="3:13" ht="68.05" customHeight="1">
       <c r="C13" s="3" t="s">
-        <v>223</v>
+        <v>234</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>225</v>
+        <v>236</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>226</v>
+        <v>237</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="J13" s="11" t="s">
+        <v>21</v>
       </c>
       <c r="M13" s="3" t="s">
         <v>22</v>
@@ -3854,7 +3960,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1721277261" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1722487745" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -3863,16 +3969,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1721277261" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1721277261" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1721277261" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1721277261" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1722487745" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1722487745" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1722487745" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1722487745" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1721277261" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1722487745" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -3885,16 +3991,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <dimension ref="A1:P8"/>
   <sheetViews>
-    <sheetView view="normal" zoomScale="60" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+    <sheetView tabSelected="1" view="normal" topLeftCell="B1" zoomScale="60" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6:J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="9" defaultColWidth="10.000000" defaultRowHeight="70.85" customHeight="1"/>
   <cols>
     <col min="1" max="6" width="26.558559" customWidth="1" style="3"/>
     <col min="7" max="7" width="51.063063" customWidth="1" style="3"/>
-    <col min="8" max="8" width="46.288288" customWidth="1" style="3"/>
-    <col min="9" max="16384" width="26.558559" customWidth="1" style="3"/>
+    <col min="8" max="9" width="46.288288" customWidth="1" style="3"/>
+    <col min="10" max="16384" width="26.558559" customWidth="1" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="25.50" customHeight="1"/>
@@ -3947,28 +4053,34 @@
     </row>
     <row r="6" spans="1:13" ht="70.85" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>233</v>
+        <v>245</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>21</v>
       </c>
       <c r="M6" s="3" t="s">
         <v>22</v>
@@ -3976,22 +4088,28 @@
     </row>
     <row r="7" spans="3:13" ht="70.85" customHeight="1">
       <c r="C7" s="3" t="s">
-        <v>234</v>
+        <v>247</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>235</v>
+        <v>248</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>236</v>
+        <v>249</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>233</v>
+        <v>245</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>21</v>
       </c>
       <c r="M7" s="3" t="s">
         <v>22</v>
@@ -3999,22 +4117,28 @@
     </row>
     <row r="8" spans="3:13" ht="70.85" customHeight="1">
       <c r="C8" s="3" t="s">
-        <v>238</v>
+        <v>251</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>239</v>
+        <v>252</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>240</v>
+        <v>253</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>242</v>
+        <v>254</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="J8" s="11" t="s">
+        <v>21</v>
       </c>
       <c r="M8" s="3" t="s">
         <v>31</v>
@@ -4024,7 +4148,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1721277261" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1722487745" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -4033,16 +4157,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1721277261" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1721277261" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1721277261" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1721277261" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1722487745" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1722487745" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1722487745" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1722487745" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1721277261" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1722487745" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -4113,16 +4237,16 @@
     </row>
     <row r="6" spans="1:13" s="3" customFormat="1" ht="62.35" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>246</v>
+        <v>260</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>17</v>
@@ -4131,10 +4255,10 @@
         <v>17</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>247</v>
+        <v>261</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>248</v>
+        <v>262</v>
       </c>
       <c r="M6" s="3" t="s">
         <v>22</v>
@@ -4142,10 +4266,10 @@
     </row>
     <row r="7" spans="3:13" s="3" customFormat="1" ht="62.35" customHeight="1">
       <c r="C7" s="3" t="s">
-        <v>249</v>
+        <v>263</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>250</v>
+        <v>264</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>17</v>
@@ -4154,10 +4278,10 @@
         <v>17</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>251</v>
+        <v>265</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>248</v>
+        <v>262</v>
       </c>
       <c r="M7" s="3" t="s">
         <v>22</v>
@@ -4178,7 +4302,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1721277261" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1722487745" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -4187,16 +4311,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1721277261" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1721277261" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1721277261" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1721277261" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1722487745" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1722487745" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1722487745" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1722487745" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1721277261" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1722487745" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -4215,10 +4339,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="9" defaultColWidth="10.000000" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="7" width="27.072072" customWidth="1" style="11"/>
-    <col min="8" max="8" width="50.234234" customWidth="1" style="11"/>
-    <col min="9" max="9" width="58.081081" customWidth="1" style="11"/>
-    <col min="10" max="16384" width="27.072072" customWidth="1" style="11"/>
+    <col min="1" max="7" width="27.072072" customWidth="1" style="3"/>
+    <col min="8" max="8" width="50.234234" customWidth="1" style="3"/>
+    <col min="9" max="9" width="58.081081" customWidth="1" style="3"/>
+    <col min="10" max="16384" width="27.072072" customWidth="1" style="3"/>
   </cols>
   <sheetData>
     <row r="5" spans="1:16" s="3" customFormat="1" ht="76.55" customHeight="1">
@@ -4266,66 +4390,66 @@
       <c r="P5" s="2"/>
     </row>
     <row r="6" spans="1:13" ht="76.55" customHeight="1">
-      <c r="A6" s="11" t="s">
-        <v>252</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>254</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>255</v>
-      </c>
-      <c r="E6" s="11" t="s">
+      <c r="A6" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="13" t="s">
-        <v>256</v>
-      </c>
-      <c r="H6" s="14" t="s">
-        <v>257</v>
-      </c>
-      <c r="I6" s="11" t="s">
-        <v>258</v>
-      </c>
-      <c r="J6" s="15" t="s">
+      <c r="G6" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="J6" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="M6" s="11" t="s">
+      <c r="M6" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="7" spans="3:13" ht="76.55" customHeight="1">
-      <c r="C7" s="11" t="s">
-        <v>259</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>260</v>
-      </c>
-      <c r="E7" s="11" t="s">
+      <c r="C7" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="13" t="s">
-        <v>261</v>
-      </c>
-      <c r="H7" s="12" t="s">
-        <v>262</v>
-      </c>
-      <c r="I7" s="12" t="s">
-        <v>263</v>
-      </c>
-      <c r="J7" s="15" t="s">
+      <c r="G7" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="J7" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="M7" s="11" t="s">
+      <c r="M7" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -4334,7 +4458,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1721277261" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1722487745" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -4343,16 +4467,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1721277261" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1721277261" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1721277261" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1721277261" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1722487745" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1722487745" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1722487745" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1722487745" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1721277261" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1722487745" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -4371,11 +4495,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="9" defaultColWidth="10.000000" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="6" width="25.540541" customWidth="1" style="16"/>
-    <col min="7" max="7" width="30.396396" customWidth="1" style="16"/>
-    <col min="8" max="8" width="64.108108" customWidth="1" style="16"/>
-    <col min="9" max="9" width="51.486486" customWidth="1" style="16"/>
-    <col min="10" max="16384" width="25.540541" customWidth="1" style="16"/>
+    <col min="1" max="6" width="25.540541" customWidth="1" style="3"/>
+    <col min="7" max="7" width="30.396396" customWidth="1" style="3"/>
+    <col min="8" max="8" width="64.108108" customWidth="1" style="3"/>
+    <col min="9" max="9" width="51.486486" customWidth="1" style="3"/>
+    <col min="10" max="16384" width="25.540541" customWidth="1" style="3"/>
   </cols>
   <sheetData>
     <row r="5" spans="1:16" s="3" customFormat="1" ht="85.05" customHeight="1">
@@ -4423,37 +4547,37 @@
       <c r="P5" s="2"/>
     </row>
     <row r="6" spans="1:13" ht="85.05" customHeight="1">
-      <c r="A6" s="16" t="s">
-        <v>264</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>265</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>266</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>267</v>
-      </c>
-      <c r="E6" s="16" t="s">
+      <c r="A6" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="16" t="s">
+      <c r="F6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="18" t="s">
-        <v>268</v>
-      </c>
-      <c r="H6" s="17" t="s">
-        <v>269</v>
-      </c>
-      <c r="I6" s="12" t="s">
-        <v>270</v>
-      </c>
-      <c r="J6" s="19" t="s">
+      <c r="G6" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="J6" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="M6" s="16" t="s">
+      <c r="M6" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -4463,7 +4587,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1721277261" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1722487745" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -4472,16 +4596,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1721277261" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1721277261" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1721277261" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1721277261" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1722487745" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1722487745" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1722487745" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1722487745" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1721277261" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1722487745" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>

--- a/Test case Awesomeqa.xlsx
+++ b/Test case Awesomeqa.xlsx
@@ -5,7 +5,7 @@
   <fileSharing readOnlyRecommended="0" userName="Ashu"/>
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="5" xWindow="240" yWindow="60" windowWidth="0" windowHeight="0" tabRatio="655"/>
+    <workbookView activeTab="9" xWindow="240" yWindow="60" windowWidth="0" windowHeight="0" tabRatio="655"/>
   </bookViews>
   <sheets>
     <sheet name="Homepage Loading" sheetId="1" r:id="rId4"/>
@@ -23,10 +23,10 @@
   <calcPr/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1722487745" val="1216" rev="124" revOS="4" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1722487745" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1722487745" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1722487745"/>
+      <pm:revision xmlns:pm="smNativeData" day="1722487856" val="1216" rev="124" revOS="4" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1722487856" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1722487856" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1722487856"/>
     </ext>
   </extLst>
 </workbook>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="336">
   <si>
     <t>Scenario TID</t>
   </si>
@@ -1098,6 +1098,10 @@
     <t>1. Click on MacBook product link</t>
   </si>
   <si>
+    <t>Product details page should displays image, description, 
+price, etc.</t>
+  </si>
+  <si>
     <t>Product details page displays image, description, price, etc.</t>
   </si>
   <si>
@@ -1352,7 +1356,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1722487745" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1722487856" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -1366,7 +1370,7 @@
       <sz val="14"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1722487745" fgClr="FFFFFF" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1722487856" fgClr="FFFFFF" ulstyle="none" kern="1">
             <pm:latin face="Lato" sz="280" lang="default"/>
             <pm:cs face="Times New Roman" sz="280" lang="default"/>
             <pm:ea face="SimSun" sz="280" lang="default"/>
@@ -1381,7 +1385,7 @@
       <sz val="14"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1722487745" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1722487856" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="280" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -1396,7 +1400,7 @@
       <sz val="14"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1722487745" fgClr="FFFFFF" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1722487856" fgClr="FFFFFF" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="280" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -1412,7 +1416,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1722487745" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1722487856" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Arial" sz="280" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -1434,7 +1438,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1722487745" type="1" fgLvl="100" fgClr="00FF6D01" bgLvl="100" bgClr="00FF6D01"/>
+            <pm:shade xmlns:pm="smNativeData" id="1722487856" type="1" fgLvl="100" fgClr="00FF6D01" bgLvl="100" bgClr="00FF6D01"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1445,7 +1449,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1722487745" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1722487856" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1456,7 +1460,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1722487745" type="1" fgLvl="100" fgClr="00FF6D01" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1722487856" type="1" fgLvl="100" fgClr="00FF6D01" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1467,7 +1471,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1722487745" type="1" fgLvl="100" fgClr="0000FF00" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1722487856" type="1" fgLvl="100" fgClr="0000FF00" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1478,7 +1482,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1722487745" type="1" fgLvl="76" fgClr="0000FF00" bgLvl="24" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1722487856" type="1" fgLvl="76" fgClr="0000FF00" bgLvl="24" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1489,7 +1493,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1722487745" type="1" fgLvl="76" fgClr="00FF0000" bgLvl="24" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1722487856" type="1" fgLvl="76" fgClr="00FF0000" bgLvl="24" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1511,7 +1515,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1722487745"/>
+          <pm:border xmlns:pm="smNativeData" id="1722487856"/>
         </ext>
       </extLst>
     </border>
@@ -1530,7 +1534,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1722487745"/>
+          <pm:border xmlns:pm="smNativeData" id="1722487856"/>
         </ext>
       </extLst>
     </border>
@@ -1549,7 +1553,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1722487745"/>
+          <pm:border xmlns:pm="smNativeData" id="1722487856"/>
         </ext>
       </extLst>
     </border>
@@ -1568,7 +1572,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1722487745"/>
+          <pm:border xmlns:pm="smNativeData" id="1722487856"/>
         </ext>
       </extLst>
     </border>
@@ -1587,7 +1591,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1722487745"/>
+          <pm:border xmlns:pm="smNativeData" id="1722487856"/>
         </ext>
       </extLst>
     </border>
@@ -1606,7 +1610,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1722487745"/>
+          <pm:border xmlns:pm="smNativeData" id="1722487856"/>
         </ext>
       </extLst>
     </border>
@@ -1625,7 +1629,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1722487745"/>
+          <pm:border xmlns:pm="smNativeData" id="1722487856"/>
         </ext>
       </extLst>
     </border>
@@ -1678,10 +1682,10 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1722487745" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1722487856" count="1">
         <pm:charStyle name="Normal" fontId="0"/>
       </pm:charStyles>
-      <pm:colors xmlns:pm="smNativeData" id="1722487745" count="4">
+      <pm:colors xmlns:pm="smNativeData" id="1722487856" count="4">
         <pm:color name="Color 24" rgb="FF6D01"/>
         <pm:color name="Color 25" rgb="3DFF3D"/>
         <pm:color name="Color 26" rgb="FF3D3D"/>
@@ -2056,7 +2060,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1722487745" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1722487856" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -2065,16 +2069,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1722487745" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1722487745" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1722487745" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1722487745" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1722487856" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1722487856" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1722487856" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1722487856" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1722487745" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1722487856" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -2087,8 +2091,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <dimension ref="A5:P9"/>
   <sheetViews>
-    <sheetView view="normal" topLeftCell="G1" zoomScale="60" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+    <sheetView tabSelected="1" view="normal" zoomScale="60" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="9" defaultColWidth="10.000000" defaultRowHeight="18"/>
@@ -2149,28 +2153,28 @@
     </row>
     <row r="6" spans="1:13" ht="85.05" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="M6" s="3" t="s">
         <v>22</v>
@@ -2178,22 +2182,22 @@
     </row>
     <row r="7" spans="3:13" ht="85.05" customHeight="1">
       <c r="C7" s="3" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="M7" s="3" t="s">
         <v>22</v>
@@ -2201,22 +2205,22 @@
     </row>
     <row r="8" spans="3:13" ht="85.05" customHeight="1">
       <c r="C8" s="3" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="M8" s="3" t="s">
         <v>22</v>
@@ -2224,22 +2228,22 @@
     </row>
     <row r="9" spans="3:13" ht="85.05" customHeight="1">
       <c r="C9" s="3" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="M9" s="3" t="s">
         <v>22</v>
@@ -2249,7 +2253,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1722487745" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1722487856" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -2258,16 +2262,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1722487745" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1722487745" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1722487745" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1722487745" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1722487856" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1722487856" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1722487856" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1722487856" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1722487745" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1722487856" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -2341,28 +2345,28 @@
     </row>
     <row r="6" spans="1:13" ht="99.20" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M6" s="3" t="s">
         <v>22</v>
@@ -2370,22 +2374,22 @@
     </row>
     <row r="7" spans="3:13" ht="99.20" customHeight="1">
       <c r="C7" s="3" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="M7" s="3" t="s">
         <v>22</v>
@@ -2393,22 +2397,22 @@
     </row>
     <row r="8" spans="3:13" ht="99.20" customHeight="1">
       <c r="C8" s="3" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M8" s="3" t="s">
         <v>22</v>
@@ -2416,22 +2420,22 @@
     </row>
     <row r="9" spans="3:13" ht="99.20" customHeight="1">
       <c r="C9" s="3" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="M9" s="3" t="s">
         <v>31</v>
@@ -2439,22 +2443,22 @@
     </row>
     <row r="10" spans="3:13" ht="99.20" customHeight="1">
       <c r="C10" s="3" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="M10" s="3" t="s">
         <v>22</v>
@@ -2464,7 +2468,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1722487745" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1722487856" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -2473,16 +2477,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1722487745" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1722487745" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1722487745" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1722487745" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1722487856" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1722487856" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1722487856" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1722487856" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1722487745" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1722487856" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -2747,7 +2751,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1722487745" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1722487856" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -2756,17 +2760,17 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1722487745" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1722487745" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1722487745" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1722487745" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1722487856" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1722487856" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1722487856" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1722487856" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1722487745" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1722487856" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -3120,7 +3124,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1722487745" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1722487856" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -3129,16 +3133,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1722487745" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1722487745" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1722487745" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1722487745" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1722487856" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1722487856" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1722487856" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1722487856" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1722487745" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1722487856" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -3626,7 +3630,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1722487745" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1722487856" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -3635,16 +3639,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1722487745" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1722487745" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1722487745" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1722487745" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1722487856" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1722487856" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1722487856" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1722487856" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1722487745" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1722487856" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -3960,7 +3964,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1722487745" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1722487856" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -3969,16 +3973,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1722487745" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1722487745" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1722487745" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1722487745" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1722487856" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1722487856" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1722487856" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1722487856" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1722487745" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1722487856" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -3991,8 +3995,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <dimension ref="A1:P8"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="normal" topLeftCell="B1" zoomScale="60" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6:J8"/>
+    <sheetView view="normal" topLeftCell="B1" zoomScale="60" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="9" defaultColWidth="10.000000" defaultRowHeight="70.85" customHeight="1"/>
@@ -4148,7 +4152,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1722487745" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1722487856" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -4157,16 +4161,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1722487745" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1722487745" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1722487745" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1722487745" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1722487856" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1722487856" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1722487856" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1722487856" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1722487745" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1722487856" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -4179,16 +4183,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <dimension ref="A5:P18"/>
   <sheetViews>
-    <sheetView view="normal" zoomScale="60" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+    <sheetView view="normal" topLeftCell="D1" zoomScale="60" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6:J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="9" defaultColWidth="10.000000" defaultRowHeight="13.45"/>
   <cols>
     <col min="1" max="6" width="29.108108" customWidth="1"/>
     <col min="7" max="7" width="37.432432" customWidth="1"/>
-    <col min="8" max="8" width="67.198198" customWidth="1"/>
-    <col min="9" max="16384" width="29.108108" customWidth="1"/>
+    <col min="8" max="9" width="67.198198" customWidth="1"/>
+    <col min="10" max="16384" width="29.108108" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="5" spans="1:16" s="3" customFormat="1" ht="62.35" customHeight="1">
@@ -4257,8 +4261,14 @@
       <c r="G6" s="9" t="s">
         <v>261</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="12" t="s">
         <v>262</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>21</v>
       </c>
       <c r="M6" s="3" t="s">
         <v>22</v>
@@ -4266,10 +4276,10 @@
     </row>
     <row r="7" spans="3:13" s="3" customFormat="1" ht="62.35" customHeight="1">
       <c r="C7" s="3" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>17</v>
@@ -4278,10 +4288,16 @@
         <v>17</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>265</v>
-      </c>
-      <c r="H7" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="H7" s="12" t="s">
         <v>262</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>21</v>
       </c>
       <c r="M7" s="3" t="s">
         <v>22</v>
@@ -4302,7 +4318,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1722487745" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1722487856" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -4311,16 +4327,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1722487745" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1722487745" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1722487745" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1722487745" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1722487856" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1722487856" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1722487856" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1722487856" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1722487745" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1722487856" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -4334,7 +4350,7 @@
   <dimension ref="A5:P8"/>
   <sheetViews>
     <sheetView view="normal" topLeftCell="B1" zoomScale="60" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="9" defaultColWidth="10.000000" defaultRowHeight="18"/>
@@ -4391,16 +4407,16 @@
     </row>
     <row r="6" spans="1:13" ht="76.55" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>17</v>
@@ -4409,13 +4425,13 @@
         <v>17</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="J6" s="8" t="s">
         <v>21</v>
@@ -4426,10 +4442,10 @@
     </row>
     <row r="7" spans="3:13" ht="76.55" customHeight="1">
       <c r="C7" s="3" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>17</v>
@@ -4438,13 +4454,13 @@
         <v>17</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="J7" s="8" t="s">
         <v>21</v>
@@ -4458,7 +4474,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1722487745" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1722487856" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -4467,16 +4483,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1722487745" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1722487745" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1722487745" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1722487745" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1722487856" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1722487856" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1722487856" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1722487856" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1722487745" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1722487856" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -4490,7 +4506,7 @@
   <dimension ref="A5:P8"/>
   <sheetViews>
     <sheetView view="normal" zoomScale="60" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="9" defaultColWidth="10.000000" defaultRowHeight="18"/>
@@ -4548,16 +4564,16 @@
     </row>
     <row r="6" spans="1:13" ht="85.05" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>17</v>
@@ -4566,13 +4582,13 @@
         <v>17</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="J6" s="8" t="s">
         <v>21</v>
@@ -4587,7 +4603,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1722487745" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1722487856" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -4596,16 +4612,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1722487745" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1722487745" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1722487745" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1722487745" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1722487856" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1722487856" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1722487856" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1722487856" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1722487745" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1722487856" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
